--- a/biology/Botanique/Asteroideae/Asteroideae.xlsx
+++ b/biology/Botanique/Asteroideae/Asteroideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asteroideae sont une sous-famille de plantes dicotylédones de la famille des Asteraceae, à répartition cosmopolite, qui comprend une vingtaine de tribus regroupant environ 1135 genres et 17200 espèces. Les genres les plus importants sont Helichrysum (500 à 600 espèces) et Artemisia (550).
-Les Asteroideae seraient apparues il y a approximativement 46 à 36,5 millions d'années[2].
+Les Asteroideae seraient apparues il y a approximativement 46 à 36,5 millions d'années.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 mai 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 mai 2018) :
 Ambrosiaceae Martinov
 Anthemidaceae Martynov
 Artemisiaceae Martynov
@@ -552,12 +566,14 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette sous-famille est composée de 21 tribus réparties en 3 super-tribus : Senecionodae, Asterodae et Helianthodae. Senecioneae contient environ 120 genres et plus de 3 200 espèces que l'on trouve dans les zones plus tempérées[4]. Asterodae contient de nombreuses plantes économiquement importantes telles que les chrysanthèmes, la marguerite commune et les asters. La troisième super tribu est celle des Helianthodae, qui est la plus grande des trois, contenant 16 des 21 tribus[5].
-Depuis 2004, les 21 tribus sont regroupées en trois super-tribus[6],[7],[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette sous-famille est composée de 21 tribus réparties en 3 super-tribus : Senecionodae, Asterodae et Helianthodae. Senecioneae contient environ 120 genres et plus de 3 200 espèces que l'on trouve dans les zones plus tempérées. Asterodae contient de nombreuses plantes économiquement importantes telles que les chrysanthèmes, la marguerite commune et les asters. La troisième super tribu est celle des Helianthodae, qui est la plus grande des trois, contenant 16 des 21 tribus.
+Depuis 2004, les 21 tribus sont regroupées en trois super-tribus :
 Senecionodae
-Senecioneae Cass., 1819 (Doronicum est parfois placé dans une tribu distincte Doroniceae[9])
+Senecioneae Cass., 1819 (Doronicum est parfois placé dans une tribu distincte Doroniceae)
 Asterodae
 Anthemideae Cass., 1819  (y compris les chrysanthèmes)
 Astereae Cass., 1819 (y compris les asters et la marguerite commune)
